--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
@@ -1221,7 +1221,6 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4">
@@ -1231,7 +1230,6 @@
       <c r="B2" s="4">
         <v>10</v>
       </c>
-      <c r="C2"/>
       <c r="D2"/>
     </row>
     <row r="3" spans="1:4">
@@ -1280,7 +1278,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:2">
@@ -1304,7 +1302,7 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>190</v>
       </c>
     </row>
     <row r="12" spans="1:2">

--- a/src/main/resources/网站数据.xlsx
+++ b/src/main/resources/网站数据.xlsx
@@ -1206,7 +1206,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="22.8" outlineLevelCol="3"/>
